--- a/results/mp/logistic/corona/confidence/126/stop-words-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="107">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,40 +40,61 @@
     <t>name</t>
   </si>
   <si>
+    <t>death</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>infected</t>
   </si>
   <si>
     <t>warning</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
   </si>
   <si>
     <t>drop</t>
@@ -82,31 +103,31 @@
     <t>sc</t>
   </si>
   <si>
-    <t>hell</t>
+    <t>panic</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>falling</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>sick</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>selfish</t>
+    <t>fuck</t>
   </si>
   <si>
     <t>avoid</t>
@@ -115,21 +136,18 @@
     <t>lower</t>
   </si>
   <si>
-    <t>fuck</t>
+    <t>cut</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>cut</t>
+    <t>empty</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -142,175 +160,181 @@
     <t>oil</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>19</t>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>keep</t>
   </si>
   <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>shop</t>
   </si>
 </sst>
 </file>
@@ -668,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -676,10 +700,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -737,13 +761,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9333333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -755,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -787,13 +811,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8529411764705882</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -805,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -829,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -837,13 +861,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8421052631578947</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -855,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -879,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -887,13 +911,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8055555555555556</v>
+        <v>0.8116438356164384</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>237</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>237</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -905,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K6">
-        <v>0.8947368421052632</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -929,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -937,13 +961,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7876712328767124</v>
+        <v>0.8</v>
       </c>
       <c r="C7">
-        <v>230</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>230</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -955,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K7">
-        <v>0.8666666666666667</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -987,13 +1011,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.76</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1005,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K8">
-        <v>0.8392857142857143</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L8">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1029,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1037,13 +1061,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7586206896551724</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1055,19 +1079,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1079,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1087,13 +1111,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7368421052631579</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1105,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K10">
-        <v>0.8276762402088773</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L10">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M10">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1129,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1137,13 +1161,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7333333333333333</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1155,31 +1179,31 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K11">
-        <v>0.8076923076923077</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L11">
+        <v>85</v>
+      </c>
+      <c r="M11">
+        <v>85</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>21</v>
-      </c>
-      <c r="M11">
-        <v>21</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1187,13 +1211,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7307692307692307</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1205,19 +1229,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K12">
-        <v>0.8028169014084507</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L12">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1229,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1237,13 +1261,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6956521739130435</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1258,16 +1282,16 @@
         <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K13">
-        <v>0.8018867924528302</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L13">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1279,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1287,13 +1311,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6756756756756757</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1305,19 +1329,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K14">
-        <v>0.7931034482758621</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1329,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1337,13 +1361,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.576271186440678</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C15">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1355,19 +1379,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K15">
-        <v>0.7875</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="M15">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1379,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1387,13 +1411,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5714285714285714</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C16">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1405,19 +1429,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.765625</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1429,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1437,13 +1461,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5652173913043478</v>
+        <v>0.68</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1455,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K17">
-        <v>0.7777777777777778</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="M17">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1479,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1487,13 +1511,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5294117647058824</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1505,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K18">
-        <v>0.7734375</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="M18">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1529,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1537,13 +1561,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.501937984496124</v>
+        <v>0.575</v>
       </c>
       <c r="C19">
-        <v>259</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>259</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1555,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>257</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K19">
-        <v>0.7682926829268293</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1579,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1587,13 +1611,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4697986577181208</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C20">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1605,19 +1629,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K20">
-        <v>0.7575757575757576</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1629,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1637,13 +1661,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4666666666666667</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1655,19 +1679,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K21">
-        <v>0.723404255319149</v>
+        <v>0.7439024390243902</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1679,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1687,13 +1711,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.45</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1705,19 +1729,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K22">
-        <v>0.7222222222222222</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1729,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1737,13 +1761,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4324324324324325</v>
+        <v>0.544973544973545</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1755,19 +1779,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K23">
-        <v>0.7142857142857143</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L23">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1779,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1787,13 +1811,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4266666666666667</v>
+        <v>0.5290697674418605</v>
       </c>
       <c r="C24">
-        <v>32</v>
+        <v>273</v>
       </c>
       <c r="D24">
-        <v>32</v>
+        <v>273</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1805,19 +1829,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>43</v>
+        <v>243</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K24">
-        <v>0.6875</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L24">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1829,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1837,13 +1861,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3888888888888889</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1855,19 +1879,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K25">
-        <v>0.6818181818181818</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1879,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1887,13 +1911,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3818181818181818</v>
+        <v>0.4630872483221476</v>
       </c>
       <c r="C26">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="D26">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1905,19 +1929,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K26">
-        <v>0.6818181818181818</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1929,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1937,13 +1961,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.375</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1955,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K27">
-        <v>0.6744186046511628</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L27">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="M27">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1979,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1987,7 +2011,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.358974358974359</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C28">
         <v>14</v>
@@ -2005,19 +2029,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K28">
-        <v>0.65</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L28">
-        <v>221</v>
+        <v>13</v>
       </c>
       <c r="M28">
-        <v>221</v>
+        <v>13</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2029,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>119</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2037,13 +2061,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2055,19 +2079,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K29">
-        <v>0.65</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2079,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2087,13 +2111,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2909090909090909</v>
+        <v>0.40625</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2105,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K30">
-        <v>0.6285714285714286</v>
+        <v>0.675</v>
       </c>
       <c r="L30">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2137,13 +2161,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2467532467532468</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C31">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D31">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2155,19 +2179,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K31">
-        <v>0.625</v>
+        <v>0.6441176470588236</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>219</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>219</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2179,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2187,38 +2211,38 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2444444444444444</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C32">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>15</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>24</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K32">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="L32">
         <v>22</v>
       </c>
-      <c r="D32">
+      <c r="M32">
         <v>22</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>68</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K32">
-        <v>0.625</v>
-      </c>
-      <c r="L32">
-        <v>15</v>
-      </c>
-      <c r="M32">
-        <v>15</v>
-      </c>
       <c r="N32">
         <v>1</v>
       </c>
@@ -2229,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2237,13 +2261,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2380952380952381</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C33">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2255,10 +2279,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K33">
         <v>0.6071428571428571</v>
@@ -2287,13 +2311,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1875</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2305,19 +2329,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K34">
-        <v>0.5957446808510638</v>
+        <v>0.606694560669456</v>
       </c>
       <c r="L34">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="M34">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2329,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>38</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2337,13 +2361,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1554959785522788</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C35">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D35">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2355,19 +2379,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>315</v>
+        <v>36</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K35">
-        <v>0.5846153846153846</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L35">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="M35">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2379,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2387,13 +2411,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.07666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C36">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D36">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2405,10 +2429,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>277</v>
+        <v>26</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K36">
         <v>0.5796610169491525</v>
@@ -2437,28 +2461,28 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.0115979381443299</v>
+        <v>0.3</v>
       </c>
       <c r="C37">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D37">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E37">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>3068</v>
+        <v>63</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K37">
         <v>0.5757575757575758</v>
@@ -2487,37 +2511,37 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01027557216254087</v>
+        <v>0.2207792207792208</v>
       </c>
       <c r="C38">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E38">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>2119</v>
+        <v>60</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K38">
-        <v>0.5732217573221757</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L38">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2529,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2537,54 +2561,78 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.005017246785826278</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D39">
+        <v>52</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>200</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K39">
+        <v>0.5692307692307692</v>
+      </c>
+      <c r="L39">
+        <v>37</v>
+      </c>
+      <c r="M39">
+        <v>37</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>28</v>
       </c>
-      <c r="E39">
-        <v>0.43</v>
-      </c>
-      <c r="F39">
-        <v>0.5700000000000001</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>3173</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K39">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L39">
-        <v>16</v>
-      </c>
-      <c r="M39">
-        <v>16</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>12</v>
-      </c>
     </row>
     <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.175</v>
+      </c>
+      <c r="C40">
+        <v>14</v>
+      </c>
+      <c r="D40">
+        <v>14</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>66</v>
+      </c>
       <c r="J40" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K40">
         <v>0.5652173913043478</v>
@@ -2609,8 +2657,32 @@
       </c>
     </row>
     <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.1313672922252011</v>
+      </c>
+      <c r="C41">
+        <v>49</v>
+      </c>
+      <c r="D41">
+        <v>49</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>324</v>
+      </c>
       <c r="J41" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K41">
         <v>0.5652173913043478</v>
@@ -2635,69 +2707,141 @@
       </c>
     </row>
     <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.06333333333333334</v>
+      </c>
+      <c r="C42">
+        <v>19</v>
+      </c>
+      <c r="D42">
+        <v>19</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>281</v>
+      </c>
       <c r="J42" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K42">
+        <v>0.5638297872340425</v>
+      </c>
+      <c r="L42">
+        <v>53</v>
+      </c>
+      <c r="M42">
+        <v>53</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.009822263797942002</v>
+      </c>
+      <c r="C43">
+        <v>21</v>
+      </c>
+      <c r="D43">
+        <v>26</v>
+      </c>
+      <c r="E43">
+        <v>0.19</v>
+      </c>
+      <c r="F43">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>2117</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43">
         <v>0.5600000000000001</v>
       </c>
-      <c r="L42">
+      <c r="L43">
         <v>28</v>
       </c>
-      <c r="M42">
+      <c r="M43">
         <v>28</v>
       </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K43">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L43">
-        <v>15</v>
-      </c>
-      <c r="M43">
-        <v>15</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>13</v>
-      </c>
-    </row>
     <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.009674298613350531</v>
+      </c>
+      <c r="C44">
+        <v>30</v>
+      </c>
+      <c r="D44">
+        <v>36</v>
+      </c>
+      <c r="E44">
+        <v>0.17</v>
+      </c>
+      <c r="F44">
+        <v>0.83</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>3071</v>
+      </c>
       <c r="J44" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K44">
-        <v>0.5142857142857142</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L44">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M44">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2709,21 +2853,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K45">
-        <v>0.5056179775280899</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L45">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2735,21 +2879,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K46">
-        <v>0.4761904761904762</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L46">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M46">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2761,21 +2905,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K47">
-        <v>0.4222222222222222</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L47">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M47">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2787,21 +2931,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K48">
-        <v>0.3725490196078431</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="M48">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2813,21 +2957,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K49">
-        <v>0.3698630136986301</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="L49">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M49">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2839,21 +2983,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K50">
-        <v>0.34375</v>
+        <v>0.4</v>
       </c>
       <c r="L50">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M50">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2865,21 +3009,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K51">
-        <v>0.3050847457627119</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L51">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M51">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2891,21 +3035,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K52">
-        <v>0.2950819672131147</v>
+        <v>0.3125</v>
       </c>
       <c r="L52">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M52">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2917,21 +3061,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K53">
-        <v>0.2948717948717949</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L53">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M53">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2943,21 +3087,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K54">
-        <v>0.2456140350877193</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L54">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M54">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2969,33 +3113,111 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K55">
-        <v>0.08108108108108109</v>
+        <v>0.2807017543859649</v>
       </c>
       <c r="L55">
+        <v>16</v>
+      </c>
+      <c r="M55">
+        <v>16</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K56">
+        <v>0.1296296296296296</v>
+      </c>
+      <c r="L56">
+        <v>14</v>
+      </c>
+      <c r="M56">
         <v>15</v>
       </c>
-      <c r="M55">
-        <v>15</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>170</v>
+      <c r="N56">
+        <v>0.93</v>
+      </c>
+      <c r="O56">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K57">
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="L57">
+        <v>16</v>
+      </c>
+      <c r="M57">
+        <v>16</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K58">
+        <v>0.005954246317768724</v>
+      </c>
+      <c r="L58">
+        <v>19</v>
+      </c>
+      <c r="M58">
+        <v>29</v>
+      </c>
+      <c r="N58">
+        <v>0.66</v>
+      </c>
+      <c r="O58">
+        <v>0.34</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>3172</v>
       </c>
     </row>
   </sheetData>
